--- a/data/trans_dic/P3A$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5946948466482369</v>
+        <v>0.5946948466482368</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3420479935064934</v>
+        <v>0.3420479935064933</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.4760217365860024</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5501127459038262</v>
+        <v>0.5465031033576628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3084659693086912</v>
+        <v>0.3079508824861897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4454749565954792</v>
+        <v>0.4485673414899936</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6375474615213332</v>
+        <v>0.6402854775499304</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3815184014916367</v>
+        <v>0.3806260744727207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5035376037049876</v>
+        <v>0.5051419066211157</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5292249075372797</v>
+        <v>0.5292249075372798</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2848102986585905</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4799377126626674</v>
+        <v>0.4810698292526777</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2480512039769262</v>
+        <v>0.2448741367629015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3820058966989441</v>
+        <v>0.381714249195834</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5733363701049634</v>
+        <v>0.5812069787724499</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3217992587061512</v>
+        <v>0.3172622485627885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4433649931519228</v>
+        <v>0.4447393374998133</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.5746917383339539</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2551623239086829</v>
+        <v>0.2551623239086828</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.4839923537139825</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5250468487812165</v>
+        <v>0.5264015744222174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2086290286242597</v>
+        <v>0.2074770682854971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4461239731588738</v>
+        <v>0.4477229527531486</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6213694653808576</v>
+        <v>0.6215036510958445</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3093009547876138</v>
+        <v>0.3162754616948674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5223592363803115</v>
+        <v>0.5234199462918063</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5191735221581709</v>
+        <v>0.519173522158171</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2675054359347746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.410426138687996</v>
+        <v>0.4104261386879961</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4840581150292927</v>
+        <v>0.4855504645599669</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2406349544499769</v>
+        <v>0.240998170979542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3893009776066493</v>
+        <v>0.3877146694640083</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5505967962992746</v>
+        <v>0.5501300854548826</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2976026817996468</v>
+        <v>0.2939919295854213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4329965900848166</v>
+        <v>0.4324296084245097</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4479161240539319</v>
+        <v>0.4479161240539318</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1985190896858069</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4025359331183909</v>
+        <v>0.4020466869052322</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1758844100128589</v>
+        <v>0.176578602142003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2775353349594848</v>
+        <v>0.2759453839908142</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4942587582076922</v>
+        <v>0.4929706177195268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2205650905644573</v>
+        <v>0.2204431301324322</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3249465319399233</v>
+        <v>0.3248484450477798</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.09703135036016988</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.08288979550350967</v>
+        <v>0.08288979550350968</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01315228650485901</v>
+        <v>0.01240256052297586</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07973330510961257</v>
+        <v>0.08029892377394006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06748752478733609</v>
+        <v>0.0672130474652258</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06760475707524176</v>
+        <v>0.06975578062331332</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1173696309709243</v>
+        <v>0.1161272439219152</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1002258210099938</v>
+        <v>0.1007751929770939</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.476309493088693</v>
+        <v>0.4740798357343525</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2116883680233241</v>
+        <v>0.2107355793473057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3439106866284513</v>
+        <v>0.344233292903649</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5145495054990107</v>
+        <v>0.5134609604864512</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.235384986549009</v>
+        <v>0.2346236881555354</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3672542368393757</v>
+        <v>0.3672325615312236</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>302902</v>
+        <v>300914</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>150449</v>
+        <v>150198</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>462560</v>
+        <v>465771</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>351045</v>
+        <v>352553</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>186079</v>
+        <v>185644</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>522849</v>
+        <v>524515</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>231680</v>
+        <v>232226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>104961</v>
+        <v>103617</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>346048</v>
+        <v>345784</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>276766</v>
+        <v>280565</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>136167</v>
+        <v>134247</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>401631</v>
+        <v>402876</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>247618</v>
+        <v>248257</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38999</v>
+        <v>38783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>293790</v>
+        <v>294843</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>293045</v>
+        <v>293109</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57817</v>
+        <v>59121</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>343994</v>
+        <v>344693</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>547878</v>
+        <v>549567</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>207237</v>
+        <v>207550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>775898</v>
+        <v>772736</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>623189</v>
+        <v>622661</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>256299</v>
+        <v>253189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>862986</v>
+        <v>861856</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>228626</v>
+        <v>228348</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>146134</v>
+        <v>146710</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>388220</v>
+        <v>385996</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>280721</v>
+        <v>279990</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>183257</v>
+        <v>183155</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>454540</v>
+        <v>454403</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3120</v>
+        <v>2942</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>67317</v>
+        <v>67795</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>72988</v>
+        <v>72692</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16038</v>
+        <v>16548</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99093</v>
+        <v>98044</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>108395</v>
+        <v>108989</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1639454</v>
+        <v>1631779</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>769307</v>
+        <v>765844</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2433560</v>
+        <v>2435843</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1771076</v>
+        <v>1767329</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>855424</v>
+        <v>852657</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2598742</v>
+        <v>2598589</v>
       </c>
     </row>
     <row r="32">
